--- a/biology/Histoire de la zoologie et de la botanique/Amos_Arthur_Heller/Amos_Arthur_Heller.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Amos_Arthur_Heller/Amos_Arthur_Heller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amos Arthur Heller est un botaniste américain, né en 1867 et mort en 1944.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l’un des plus importants collecteurs de végétaux de l’ouest de l’Amérique, actif de 1892 à 1940. Vivant à Los Gatos, au sud de San Francisco de 1904 à 1908, Heller récolte énormément dans le centre de la Californie. Il réunit une importante collection à Porto Rico en 1900, puis en 1902-1903. En 1913, Heller s’installe à Chico (Californie) où il enseigne dans l’école secondaire locale tout en continuant à herboriser.
 Son premier herbier, riche de 10 000 feuilles, est au jardin botanique de Brooklyn, son second herbier, ainsi que sa bibliothèque, est à l’université de Washington à Seattle. Dans son second herbier sont rassemblées les plantes qu’il a récoltées à Porto Rico, spécimens utilisés pour l’étude des espèces aujourd’hui en danger.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 26 octobre 2008).</t>
         </is>
